--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gdf7-Bmpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Gdf7</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Gdf7</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.141083</v>
       </c>
       <c r="I2">
-        <v>0.4079005192612381</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4079005192612382</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.91730166666667</v>
+        <v>30.46625333333334</v>
       </c>
       <c r="N2">
-        <v>122.751905</v>
+        <v>91.39876000000001</v>
       </c>
       <c r="O2">
-        <v>0.2897771170516137</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="P2">
-        <v>0.3083463959441224</v>
+        <v>0.2331534018544084</v>
       </c>
       <c r="Q2">
-        <v>1.924245223679444</v>
+        <v>1.432756806342222</v>
       </c>
       <c r="R2">
-        <v>17.318207013115</v>
+        <v>12.89481125708</v>
       </c>
       <c r="S2">
-        <v>0.1182002365153778</v>
+        <v>0.2185380492512374</v>
       </c>
       <c r="T2">
-        <v>0.1257746550179389</v>
+        <v>0.2331534018544084</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.141083</v>
       </c>
       <c r="I3">
-        <v>0.4079005192612381</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4079005192612382</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>104.214408</v>
       </c>
       <c r="O3">
-        <v>0.2460161470038337</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="P3">
-        <v>0.2617811683839067</v>
+        <v>0.2658454419670822</v>
       </c>
       <c r="Q3">
         <v>1.633653480429333</v>
@@ -638,10 +638,10 @@
         <v>14.702881323864</v>
       </c>
       <c r="S3">
-        <v>0.1003501141095129</v>
+        <v>0.2491807703757967</v>
       </c>
       <c r="T3">
-        <v>0.1067806745166092</v>
+        <v>0.2658454419670822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.141083</v>
       </c>
       <c r="I4">
-        <v>0.4079005192612381</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4079005192612382</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.806737</v>
+        <v>23.69037333333334</v>
       </c>
       <c r="N4">
-        <v>56.420211</v>
+        <v>71.07112000000001</v>
       </c>
       <c r="O4">
-        <v>0.1331896729995656</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="P4">
-        <v>0.1417246332776418</v>
+        <v>0.181298667526812</v>
       </c>
       <c r="Q4">
-        <v>0.8844369587236667</v>
+        <v>1.114102980328889</v>
       </c>
       <c r="R4">
-        <v>7.959932628512999</v>
+        <v>10.02692682296</v>
       </c>
       <c r="S4">
-        <v>0.05432813677675732</v>
+        <v>0.1699338582153697</v>
       </c>
       <c r="T4">
-        <v>0.05780955150605866</v>
+        <v>0.181298667526812</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -732,10 +732,10 @@
         <v>0.141083</v>
       </c>
       <c r="I5">
-        <v>0.4079005192612381</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4079005192612382</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.510579</v>
+        <v>26.2168665</v>
       </c>
       <c r="N5">
-        <v>51.021158</v>
+        <v>52.433733</v>
       </c>
       <c r="O5">
-        <v>0.1806664109270835</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="P5">
-        <v>0.1281624931702333</v>
+        <v>0.1337556791894743</v>
       </c>
       <c r="Q5">
-        <v>1.199703005685667</v>
+        <v>1.2329180588065</v>
       </c>
       <c r="R5">
-        <v>7.198218034113999</v>
+        <v>7.397508352839</v>
       </c>
       <c r="S5">
-        <v>0.07369392283022158</v>
+        <v>0.18805669340777</v>
       </c>
       <c r="T5">
-        <v>0.05227754751395306</v>
+        <v>0.1337556791894743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.141083</v>
       </c>
       <c r="I6">
-        <v>0.4079005192612381</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4079005192612382</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.229913</v>
+        <v>24.297748</v>
       </c>
       <c r="N6">
-        <v>63.689739</v>
+        <v>72.893244</v>
       </c>
       <c r="O6">
-        <v>0.1503506520179033</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="P6">
-        <v>0.1599853092240957</v>
+        <v>0.1859468094622229</v>
       </c>
       <c r="Q6">
-        <v>0.9983932719263332</v>
+        <v>1.142666393694666</v>
       </c>
       <c r="R6">
-        <v>8.985539447336999</v>
+        <v>10.283997543252</v>
       </c>
       <c r="S6">
-        <v>0.06132810902936848</v>
+        <v>0.1742906287498262</v>
       </c>
       <c r="T6">
-        <v>0.06525809070667837</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.06826433333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.204793</v>
-      </c>
-      <c r="I7">
-        <v>0.5920994807387618</v>
-      </c>
-      <c r="J7">
-        <v>0.592099480738762</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>40.91730166666667</v>
-      </c>
-      <c r="N7">
-        <v>122.751905</v>
-      </c>
-      <c r="O7">
-        <v>0.2897771170516137</v>
-      </c>
-      <c r="P7">
-        <v>0.3083463959441224</v>
-      </c>
-      <c r="Q7">
-        <v>2.793192320073889</v>
-      </c>
-      <c r="R7">
-        <v>25.138730880665</v>
-      </c>
-      <c r="S7">
-        <v>0.1715768805362359</v>
-      </c>
-      <c r="T7">
-        <v>0.1825717409261836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.06826433333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.204793</v>
-      </c>
-      <c r="I8">
-        <v>0.5920994807387618</v>
-      </c>
-      <c r="J8">
-        <v>0.592099480738762</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>34.738136</v>
-      </c>
-      <c r="N8">
-        <v>104.214408</v>
-      </c>
-      <c r="O8">
-        <v>0.2460161470038337</v>
-      </c>
-      <c r="P8">
-        <v>0.2617811683839067</v>
-      </c>
-      <c r="Q8">
-        <v>2.371375695282667</v>
-      </c>
-      <c r="R8">
-        <v>21.342381257544</v>
-      </c>
-      <c r="S8">
-        <v>0.1456660328943208</v>
-      </c>
-      <c r="T8">
-        <v>0.1550004938672976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.06826433333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.204793</v>
-      </c>
-      <c r="I9">
-        <v>0.5920994807387618</v>
-      </c>
-      <c r="J9">
-        <v>0.592099480738762</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>18.806737</v>
-      </c>
-      <c r="N9">
-        <v>56.420211</v>
-      </c>
-      <c r="O9">
-        <v>0.1331896729995656</v>
-      </c>
-      <c r="P9">
-        <v>0.1417246332776418</v>
-      </c>
-      <c r="Q9">
-        <v>1.283829363480333</v>
-      </c>
-      <c r="R9">
-        <v>11.554464271323</v>
-      </c>
-      <c r="S9">
-        <v>0.0788615362228083</v>
-      </c>
-      <c r="T9">
-        <v>0.0839150817715832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.06826433333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.204793</v>
-      </c>
-      <c r="I10">
-        <v>0.5920994807387618</v>
-      </c>
-      <c r="J10">
-        <v>0.592099480738762</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>25.510579</v>
-      </c>
-      <c r="N10">
-        <v>51.021158</v>
-      </c>
-      <c r="O10">
-        <v>0.1806664109270835</v>
-      </c>
-      <c r="P10">
-        <v>0.1281624931702333</v>
-      </c>
-      <c r="Q10">
-        <v>1.741462668382333</v>
-      </c>
-      <c r="R10">
-        <v>10.448776010294</v>
-      </c>
-      <c r="S10">
-        <v>0.1069724880968619</v>
-      </c>
-      <c r="T10">
-        <v>0.07588494565628028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.06826433333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.204793</v>
-      </c>
-      <c r="I11">
-        <v>0.5920994807387618</v>
-      </c>
-      <c r="J11">
-        <v>0.592099480738762</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>21.229913</v>
-      </c>
-      <c r="N11">
-        <v>63.689739</v>
-      </c>
-      <c r="O11">
-        <v>0.1503506520179033</v>
-      </c>
-      <c r="P11">
-        <v>0.1599853092240957</v>
-      </c>
-      <c r="Q11">
-        <v>1.449245857669667</v>
-      </c>
-      <c r="R11">
-        <v>13.043212719027</v>
-      </c>
-      <c r="S11">
-        <v>0.08902254298853483</v>
-      </c>
-      <c r="T11">
-        <v>0.09472721851741729</v>
+        <v>0.1859468094622229</v>
       </c>
     </row>
   </sheetData>
